--- a/SE2223_57046_59748_60062_60437_64859/Phase 1/Sprint1/Burndown chart.xlsx
+++ b/SE2223_57046_59748_60062_60437_64859/Phase 1/Sprint1/Burndown chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\ProjetoES\Fase1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B647205D-4673-4CE2-A1A0-205F8BD2B884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7429AF60-E123-48CF-BC6C-F039A7F65C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -198,7 +198,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -457,11 +457,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -536,6 +549,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -566,6 +582,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -577,9 +596,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1104,7 +1120,7 @@
         <c:axId val="1048433599"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="22"/>
+          <c:max val="62"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2192,8 +2208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2205,49 +2221,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="2:16" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="37"/>
     </row>
     <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="27" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -2288,8 +2304,8 @@
       </c>
     </row>
     <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="29"/>
-      <c r="C5" s="27"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
@@ -2430,118 +2446,118 @@
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="39"/>
+      <c r="C10" s="41"/>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="13">
-        <f>SUM(E6:E9)</f>
+        <f t="shared" ref="E10:O10" si="0">SUM(E6:E9)</f>
         <v>0</v>
       </c>
       <c r="F10" s="13">
-        <f>SUM(F6:F9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G10" s="13">
-        <f>SUM(G6:G9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H10" s="13">
-        <f>SUM(H6:H9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I10" s="13">
-        <f>SUM(I6:I9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J10" s="13">
-        <f>SUM(J6:J9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K10" s="13">
-        <f>SUM(K6:K9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L10" s="13">
-        <f>SUM(L6:L9)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="M10" s="13">
-        <f>SUM(M6:M9)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="N10" s="13">
-        <f>SUM(N6:N9)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="O10" s="13">
-        <f>SUM(O6:O9)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="P10" s="19"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="31"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="15">
         <f>SUM(D6:D10)</f>
         <v>60</v>
       </c>
       <c r="E11" s="16">
-        <f>D11-SUM(E6:E9)</f>
+        <f t="shared" ref="E11:O11" si="1">D11-SUM(E6:E9)</f>
         <v>60</v>
       </c>
       <c r="F11" s="14">
-        <f>E11-SUM(F6:F9)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="G11" s="14">
-        <f>F11-SUM(G6:G9)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="H11" s="14">
-        <f>G11-SUM(H6:H9)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="I11" s="14">
-        <f>H11-SUM(I6:I9)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="J11" s="12">
-        <f>I11-SUM(J6:J9)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="K11" s="12">
-        <f>J11-SUM(K6:K9)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="L11" s="12">
-        <f>K11-SUM(L6:L9)</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="M11" s="12">
-        <f>L11-SUM(M6:M9)</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="N11" s="14">
-        <f>M11-SUM(N6:N9)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="O11" s="12">
-        <f>N11-SUM(O6:O9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="33"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="17">
         <f>D11</f>
         <v>60</v>
